--- a/biology/Zoologie/Alpiscorpius_caporiaccoi/Alpiscorpius_caporiaccoi.xlsx
+++ b/biology/Zoologie/Alpiscorpius_caporiaccoi/Alpiscorpius_caporiaccoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpiscorpius caporiaccoi est une espèce de scorpions de la famille des Euscorpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Bosnie-Herzégovine[1]. Elle se rencontre vers Barevo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Bosnie-Herzégovine. Elle se rencontre vers Barevo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Tropea en 2021 mesure 25,65 mm et la femelle 27,28 mm. Alpiscorpius caporiaccoi mesure de 24 à 29 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Tropea en 2021 mesure 25,65 mm et la femelle 27,28 mm. Alpiscorpius caporiaccoi mesure de 24 à 29 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Euscorpius mingrelicus caporiaccoi par Bonacina en 1980. Elle suit son espèce dans le genre Alpiscorpius en 2019[2]. Elle est élevée au rang d'espèce par Tropea en 2021[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Euscorpius mingrelicus caporiaccoi par Bonacina en 1980. Elle suit son espèce dans le genre Alpiscorpius en 2019. Elle est élevée au rang d'espèce par Tropea en 2021.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Lodovico di Caporiacco[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Lodovico di Caporiacco.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bonacina, 1980 : « Sistematica specifica e sottospecifica del complesso Euscorpius germanus (Scorpiones, Chactidae). » Rivista del Museo Civico di Scienze Naturali Enrico Caffi (Bergamo), vol. 2, p. 47–100.</t>
         </is>
